--- a/medicine/Œil et vue/Corps_ciliaire/Corps_ciliaire.xlsx
+++ b/medicine/Œil et vue/Corps_ciliaire/Corps_ciliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps ciliaire est la portion antérieure de la choroïde sur laquelle est attachée le cristallin, par l’intermédiaire des ligaments suspenseurs (ou zonules). 
 Sur la face postérieure du corps ciliaire se trouvent les procès ciliaires qui sécrètent l'humeur aqueuse.
